--- a/listening/精听.xlsx
+++ b/listening/精听.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\listening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70573133-1A58-477C-AF10-E7DDD538804B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66057C08-62E4-4F47-9BF7-7065DF1558BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14436" yWindow="2880" windowWidth="15336" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10056" yWindow="2304" windowWidth="13068" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>C12-5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,302 @@
   </si>
   <si>
     <t>adult and child</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>previrous experience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kitchen assistants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nervous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleased</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>different things to do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bored</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>straightaway</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>responsibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moving you up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excellent start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsuitable footwear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合适的鞋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wet and slippery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ring and bracelets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>safety hazard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extra work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head chef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regulations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>properly trained</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waste disposal system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废置的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meat slicer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stressful job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in the middle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifting and carrying</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>injure yourself</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appropriate treatment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smash a plate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砸盘子</t>
+  </si>
+  <si>
+    <t>perishables.</t>
+  </si>
+  <si>
+    <t>易腐食品</t>
+  </si>
+  <si>
+    <t>low in flour and sugar and something</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>libraries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>over the centuries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concentrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>external development</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a century ago</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>population</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suppose to write</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brainstorm a few ideas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>technology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>particularly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>digitalised</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字化的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>obsolete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈旧的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out of copyright</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latest best-seller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up-to-date information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical books</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect that libraries will go on evolving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>community activities take place</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>traditional funtion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>financial implication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务影响</t>
+  </si>
+  <si>
+    <t>sort of structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interview of the staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>budget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由议会控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> controlled by the council</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>facility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slippery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emergeny exits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>archive of local newspapers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insurance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +457,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +471,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3377FF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -197,8 +499,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -479,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -490,165 +793,401 @@
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" t="s">
+        <v>96</v>
+      </c>
+      <c r="J25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" t="s">
+        <v>102</v>
+      </c>
+      <c r="J29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="D31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/listening/精听.xlsx
+++ b/listening/精听.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\listening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66057C08-62E4-4F47-9BF7-7065DF1558BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2218580D-720D-4A32-AC83-5F797361C4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10056" yWindow="2304" windowWidth="13068" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8532" yWindow="2004" windowWidth="13068" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>C12-5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,6 +450,131 @@
   </si>
   <si>
     <t>insurance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>certain values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for granted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理所当然</t>
+  </si>
+  <si>
+    <t>theoretical concepts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pursue values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at all the intention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adopt values without understanding and managing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>side effects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>construct a bridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>across a stream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descend into confusion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brilliantly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>running around in a wheel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>properly targeted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time and energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organisation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>criteria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unnecessary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rational determination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理性判断</t>
+  </si>
+  <si>
+    <t>intellectual clarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力清晰度</t>
+  </si>
+  <si>
+    <t>a launch of a chocolate bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subsequent research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advertised</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>novel products</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>losing out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>missing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +582,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,6 +601,12 @@
       <sz val="10"/>
       <color rgb="FF3377FF"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFF9690E"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -499,9 +630,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -782,23 +914,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -811,8 +944,11 @@
       <c r="H2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -825,8 +961,14 @@
       <c r="H3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -839,8 +981,11 @@
       <c r="H4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -850,8 +995,11 @@
       <c r="H5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -861,8 +1009,11 @@
       <c r="H6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -872,8 +1023,11 @@
       <c r="H7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -883,8 +1037,11 @@
       <c r="H8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -894,8 +1051,14 @@
       <c r="H9" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -905,8 +1068,11 @@
       <c r="H10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -916,8 +1082,11 @@
       <c r="H11" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -927,8 +1096,11 @@
       <c r="H12" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -941,8 +1113,11 @@
       <c r="H13" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -955,8 +1130,11 @@
       <c r="H14" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -972,8 +1150,11 @@
       <c r="J15" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -989,8 +1170,11 @@
       <c r="J16" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1000,8 +1184,11 @@
       <c r="H17" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1011,8 +1198,11 @@
       <c r="H18" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1022,8 +1212,11 @@
       <c r="H19" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1033,8 +1226,11 @@
       <c r="H20" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1047,8 +1243,14 @@
       <c r="H21" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>129</v>
+      </c>
+      <c r="M21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1061,8 +1263,14 @@
       <c r="H22" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>131</v>
+      </c>
+      <c r="M22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1072,8 +1280,11 @@
       <c r="H23" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1083,8 +1294,11 @@
       <c r="H24" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1097,8 +1311,11 @@
       <c r="J25" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1108,8 +1325,11 @@
       <c r="H26" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1119,8 +1339,11 @@
       <c r="H27" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1130,8 +1353,14 @@
       <c r="H28" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>138</v>
+      </c>
+      <c r="L28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1145,7 +1374,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>66</v>
       </c>
@@ -1156,7 +1385,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="D31" s="1" t="s">
         <v>68</v>
       </c>
@@ -1167,7 +1396,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>70</v>
       </c>

--- a/listening/精听.xlsx
+++ b/listening/精听.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\listening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2218580D-720D-4A32-AC83-5F797361C4FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752E90CC-8884-41F7-B35C-B0225253BC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8532" yWindow="2004" windowWidth="13068" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6288" yWindow="3696" windowWidth="12936" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>C12-5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -575,6 +575,102 @@
   </si>
   <si>
     <t>missing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C12-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>considerably</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attitudes towards workers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>laboured</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in appalling conditions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糟糕的条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>human resource managers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>necessary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>victim finds unacceptable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opposite extreme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullying</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numerous reasons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>superiority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hierarchy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级制度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intolerant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colleague</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constantly pessimistic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confidence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pressure work enviroment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strategic issues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>democratic business model</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -914,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1404,14 +1500,130 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/listening/精听.xlsx
+++ b/listening/精听.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\listening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752E90CC-8884-41F7-B35C-B0225253BC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EE2685-08EE-4D80-A6D4-363AE5F66F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6288" yWindow="3696" windowWidth="12936" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9936" yWindow="984" windowWidth="12936" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t>C12-5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -671,6 +671,113 @@
   </si>
   <si>
     <t>democratic business model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C12-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all sorts of facilities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new library</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>borrow books</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spend the whole moring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specifically</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>materials on the history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surrounding region</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>separate room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>community room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hired out for meetings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>certificate if they manage it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appointment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qualify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stunning scenry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excursions</t>
+  </si>
+  <si>
+    <t>短途旅行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝美的风景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>striaightforword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tourism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anonymous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trends or regularities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide and warden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the chances of reproduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mercury contamination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汞污染</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,7 +785,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -705,6 +812,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333643"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -726,10 +839,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1010,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1514,21 +1628,33 @@
       <c r="A36" t="s">
         <v>140</v>
       </c>
+      <c r="E36" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>141</v>
       </c>
+      <c r="E37" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>142</v>
       </c>
+      <c r="E38" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>143</v>
       </c>
+      <c r="E39" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1537,41 +1663,65 @@
       <c r="C40" t="s">
         <v>145</v>
       </c>
+      <c r="E40" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>146</v>
       </c>
+      <c r="E41" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>147</v>
       </c>
+      <c r="E42" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>148</v>
       </c>
+      <c r="E43" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>149</v>
       </c>
+      <c r="E44" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>150</v>
       </c>
+      <c r="E45" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>151</v>
       </c>
+      <c r="E46" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>152</v>
       </c>
+      <c r="E47" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -1580,50 +1730,99 @@
       <c r="B48" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>178</v>
+      </c>
+      <c r="G50" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E51" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G51" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>163</v>
+      </c>
+      <c r="E57" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>189</v>
+      </c>
+      <c r="G59" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/listening/精听.xlsx
+++ b/listening/精听.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\listening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EE2685-08EE-4D80-A6D4-363AE5F66F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F48C31F-D9DF-4ED7-83D8-7E6BD8203FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9936" yWindow="984" windowWidth="12936" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="2676" windowWidth="10800" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>C12-5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -778,6 +778,102 @@
   </si>
   <si>
     <t>汞污染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C13-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>two bedroom flat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>good aspects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>estate agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房产经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accessible forom of exercise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a few metres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right instructor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fitness programme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recognised qualification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>permanent damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>textile design project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color fabrics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exhibition of textiles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纺织展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>variables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chop up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切碎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whole plie of it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一小片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost a fortune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一大批钱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1126,13 +1222,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="E45" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
     <col min="10" max="10" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1614,49 +1711,64 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>140</v>
       </c>
       <c r="E36" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>141</v>
       </c>
       <c r="E37" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>142</v>
       </c>
       <c r="E38" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>143</v>
       </c>
       <c r="E39" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>194</v>
+      </c>
+      <c r="I39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>144</v>
       </c>
@@ -1666,64 +1778,88 @@
       <c r="E40" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>146</v>
       </c>
       <c r="E41" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>147</v>
       </c>
       <c r="E42" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>148</v>
       </c>
       <c r="E43" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>149</v>
       </c>
       <c r="E44" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>150</v>
       </c>
       <c r="E45" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>151</v>
       </c>
       <c r="E46" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>152</v>
       </c>
       <c r="E47" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>153</v>
       </c>
@@ -1733,16 +1869,25 @@
       <c r="E48" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>204</v>
+      </c>
+      <c r="I48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>155</v>
       </c>
       <c r="E49" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>156</v>
       </c>
@@ -1752,8 +1897,14 @@
       <c r="G50" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+      <c r="H50" t="s">
+        <v>207</v>
+      </c>
+      <c r="I50" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>157</v>
       </c>
@@ -1763,24 +1914,42 @@
       <c r="G51" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>209</v>
+      </c>
+      <c r="I51" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>158</v>
       </c>
       <c r="E52" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>211</v>
+      </c>
+      <c r="I52" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>159</v>
       </c>
       <c r="E53" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>213</v>
+      </c>
+      <c r="I53" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>160</v>
       </c>
@@ -1788,7 +1957,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>161</v>
       </c>
@@ -1796,7 +1965,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>162</v>
       </c>
@@ -1804,7 +1973,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>163</v>
       </c>
@@ -1812,12 +1981,12 @@
         <v>187</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>189</v>
       </c>

--- a/listening/精听.xlsx
+++ b/listening/精听.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\listening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F48C31F-D9DF-4ED7-83D8-7E6BD8203FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76E3A0D-F634-4CAC-97FC-EAF5367C1947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="2676" windowWidth="10800" windowHeight="8868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9996" yWindow="1716" windowWidth="10800" windowHeight="9708" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
   <si>
     <t>C12-5</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -874,6 +874,49 @@
   </si>
   <si>
     <t>一大批钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C13-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low minimum wage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medal</t>
+  </si>
+  <si>
+    <t>奖牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陡峭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ascent </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攀岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get tot the summit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到山顶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1222,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E45" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1711,17 +1754,17 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H34" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>140</v>
       </c>
@@ -1731,8 +1774,11 @@
       <c r="H36" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>141</v>
       </c>
@@ -1742,8 +1788,14 @@
       <c r="H37" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>216</v>
+      </c>
+      <c r="M37" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>142</v>
       </c>
@@ -1753,8 +1805,14 @@
       <c r="H38" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K38" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L38" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>143</v>
       </c>
@@ -1767,8 +1825,14 @@
       <c r="I39" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K39" t="s">
+        <v>220</v>
+      </c>
+      <c r="L39" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>144</v>
       </c>
@@ -1781,8 +1845,14 @@
       <c r="H40" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
+        <v>222</v>
+      </c>
+      <c r="L40" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>146</v>
       </c>
@@ -1792,8 +1862,14 @@
       <c r="H41" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>224</v>
+      </c>
+      <c r="M41" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>147</v>
       </c>
@@ -1804,7 +1880,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>148</v>
       </c>
@@ -1815,7 +1891,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>149</v>
       </c>
@@ -1826,7 +1902,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>150</v>
       </c>
@@ -1837,7 +1913,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>151</v>
       </c>
@@ -1848,7 +1924,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>152</v>
       </c>
@@ -1859,7 +1935,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>153</v>
       </c>

--- a/listening/精听.xlsx
+++ b/listening/精听.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的雅思\MyIELTS\listening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76E3A0D-F634-4CAC-97FC-EAF5367C1947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003E586D-6275-49A6-9974-F228689DC2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9996" yWindow="1716" windowWidth="10800" windowHeight="9708" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8664" yWindow="2616" windowWidth="11124" windowHeight="9636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
